--- a/biology/Histoire de la zoologie et de la botanique/Giovanni_Targioni_Tozzetti/Giovanni_Targioni_Tozzetti.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Giovanni_Targioni_Tozzetti/Giovanni_Targioni_Tozzetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Targioni Tozzetti est un médecin et un naturaliste italien, né le 11 septembre 1712 à Florence et mort le 7 janvier 1783 dans cette même ville.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est le fils de Benedetto Targioni et de Cecilia Tozzetti. Il est diplômé de médecine à Pise en 1734. Il hérite de l’amour de la botanique de son père, il décide alors, sous la conduite de l’éminent Florentin Pier Antonio Micheli (1679-1737), de se consacrer à l’étude de cette discipline. Il lui succédera d’ailleurs à la tête du Jardin des simples de Florence et deviendra professeur de botanique.
-Ses recherches le conduisent à découvrir les parasites des végétaux et il étudie les applications pratiques de ses découvertes. En 1739, il devient préfet de la bibliothèque nationale centrale de Florence et occupe, au fil des ans, de nombreuses fonctions au sein de cette vaste institution. Ceci lui permet de se consacrer à une autre de ses passions, l’histoire. En 1741, il fait paraître un livret sur une invasion d’Ephemeroptera[1]. Il est également l’auteur d’une note sur l’utilisation de la cantharide officinale (Lytta vesicatoria) comme aphrodisiaque[2].
+Ses recherches le conduisent à découvrir les parasites des végétaux et il étudie les applications pratiques de ses découvertes. En 1739, il devient préfet de la bibliothèque nationale centrale de Florence et occupe, au fil des ans, de nombreuses fonctions au sein de cette vaste institution. Ceci lui permet de se consacrer à une autre de ses passions, l’histoire. En 1741, il fait paraître un livret sur une invasion d’Ephemeroptera. Il est également l’auteur d’une note sur l’utilisation de la cantharide officinale (Lytta vesicatoria) comme aphrodisiaque.
 Targioni Tozzetti s’intéresse aussi à l’histoire de la Toscane et fait paraître Viaggi fatti in diverse parti della Toscana per osservare le produzioni naturali e gli antichi monumenti (Voyage dans les différentes parties de la Toscane et observation sur les productions naturelles et les monuments antiques), dont il existe deux éditions : la première en six volumes (Florence, 1751-1754), et la deuxième en douze volumes (1768-1779). Cette œuvre est une description exhaustive de la Toscane, tant du point de vue historique que scientifique. Les différentes parties traitent de la botanique (celle-ci est précédée d’un essai sur la pathologie végétale), à la médecine, à la zoologie, à la minéralogie avant de s’achever sur l’architecture. La partie la plus intéressante de son Viaggi fatti in diverse parti della Toscana est celle qu’il consacre à la géographie : Targioni Tozzetti y réalise une carte littéraire de sa région, un but atteint avec une grande précision et beaucoup de soin.
 Il s’intéresse aussi à la cartographie et commence à rédiger une chorographie et une topographie physique de la Toscane, mais il ne fait paraître que le seul prodromo en 1758.
 En 1763, il fait paraître Catalogo delle Produzioni Naturali presenti nella Real Galleria dans lequel il propose notamment la création d’un musée scientifique, qui verra le jour en 1775 par une donation par le grand-duc Léopold (1747-1792) : le Musée royal et impérial de physique et d’histoire naturelle de Florence.
